--- a/aguacate_productiva.xlsx
+++ b/aguacate_productiva.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6bce86499b061b6/Documentos/AGROSAVIA/Ficha tecnica agroclimatica/CSV_FTA_HTML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A114117E-41B1-40F4-A4E8-40A6532E7747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{A114117E-41B1-40F4-A4E8-40A6532E7747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C53AA615-BB8B-4C87-960F-701003389376}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{48429FDD-0F4F-419E-9EE1-AC364F5E6D47}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{48429FDD-0F4F-419E-9EE1-AC364F5E6D47}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Tmax</t>
   </si>
@@ -135,104 +135,104 @@
     <t>Interrupción del ciclo floral, reducción del crecimiento del tubo polínico, disminución en la penetración de óvulos, prolongación de periodo de floración, caida de flores</t>
   </si>
   <si>
-    <t xml:space="preserve">Fruto
-1-  (etapa 1 a la 2: tamaño 1 a 39 mm de diámetro, de 1 a 15 mm De amarre- secos, recubren el ovario), 710-711 
-2-(etapa 3 a la 4: tamaño de 40 mm a 51 mm de diámetro, conservan el color verde claro), 712-715
-3- (etapa 5:  tamaño de 51 mm de diámetro, de color verde oscuro, listos para corte 3/4 de sazón), 719
+    <t>Susceptibilidad a Phytophthora cinnamomi,  crecimiento excesivo de los frutos, reducción en la calidad del fruto, y  caída prematura, Menor rendimiento productivo</t>
+  </si>
+  <si>
+    <t>frutos más pequeños y con menor contenido de pulpa, caída prematura, desarrollo desigual, pudrición del pedúnculo, mancha negra, ácaros y moscas de la fruta, menor rendimiento productivo</t>
+  </si>
+  <si>
+    <t>Muerte embrionaria, caida de frutillos , abscisión de flores individuales, Disminución en llenado de fruto, caida rpematura de frutos</t>
+  </si>
+  <si>
+    <t>Cosecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfermedades postcosecha como la pudrición, Dificultad y demoras en  de cosecha y transporte, mayores costos asociados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayor caída de frutos, desuniformidad de maduración y predisposición a desórdenes fisiológicos, frutos deshidratados, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deshidratación de frutos, reducción de peso, tamañado y calidad comercial, </t>
+  </si>
+  <si>
+    <t>Fertilización</t>
+  </si>
+  <si>
+    <t>pérdida de nutrientes por lixiviación y escorrentía, desplazamiento de fertilizante, dilución de fertilizante, desnutrición de las plantas.</t>
+  </si>
+  <si>
+    <t>Reduccion en la disponibilidad de nutrientes del suelo, plantas débiles y susceptibles a enfermedades y plagas, volatilización de compuestos químicos</t>
+  </si>
+  <si>
+    <t>Adhesión y germinación del polen reducidas, baja eficiencia en la fertilización, Incremento en la velocidad de desecación del estigma</t>
+  </si>
+  <si>
+    <t>Reducción en la absorción de fertilizantes,  fertilizantes aplicados no se absorben y pueden acumularse. Riesgo de toxicidad localizada por amonio si se aplica previo a helada.</t>
+  </si>
+  <si>
+    <t>Arvenses</t>
+  </si>
+  <si>
+    <t>germinación y crecimiento acelerado de arvenses, mayor dispersión de semillas, dificultad en la aplicación de herbicidas, arvenses hospederos alternos de plagas, competencia por nutrientes</t>
+  </si>
+  <si>
+    <t>disminución en el crecimiento de arvenses nobles, aceleración de procesos de erosión del suelo</t>
+  </si>
+  <si>
+    <t>Proliferación de arvenses tolerantes a temperaturas altas, dificultad para control mecanico por suelos secos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menor eficacia en control de arvenses manual/ químico, </t>
+  </si>
+  <si>
+    <t>Asfixia radicular, ataque de Phytophthora, Cinnamomi y Verticillium albo-atrum, bajo desarrollo radicular, baja absorción de nutrientes, erosión del suelo alrededor de las raíces, reducción de longitud de raices</t>
+  </si>
+  <si>
+    <t>pérdida de turgencia, menor tamaño y grosor, mayor vulnerabilidad a daños mecánicos, tallos débiles y susceptibles a enfermedades y plagas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disminución acelerada de reservas de almidón, afectando el suministro energético a otras partes de la planta, reducción del diámetro del tallo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aborto de yemas florales, crecimiento vegetativo desbalanceado, disminución en síntesis y acumulación de fitohormonas, específicamente auxinas y giberelinas</t>
+  </si>
+  <si>
+    <t>Reducción del periodo antesis, disminución  en el porcentaje de apertura floral, Reducción en la probabilidad de cuajado de fruto, Acortamiento del periodo de floración, inhibición en el crecimiento del tubo polínico, desincronización en la apertura floral, menor eficiencia en la polinización cruzada, disminución en sincronización floral, cambios en el patrón de apertura de las flores  masculinas y femeninas, caida de flores</t>
+  </si>
+  <si>
+    <t>Desarrollo embrionario lento, caida de frutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perdida de fruta por heladas, cicatrices sobre fruta, cosechas tardias </t>
+  </si>
+  <si>
+    <t>meses</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>ini</t>
+  </si>
+  <si>
+    <t>elem</t>
+  </si>
+  <si>
+    <t>deficit</t>
+  </si>
+  <si>
+    <t>exceso</t>
+  </si>
+  <si>
+    <t>3,5,7,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollo del fruto
 </t>
   </si>
   <si>
-    <t>Susceptibilidad a Phytophthora cinnamomi,  crecimiento excesivo de los frutos, reducción en la calidad del fruto, y  caída prematura, Menor rendimiento productivo</t>
-  </si>
-  <si>
-    <t>frutos más pequeños y con menor contenido de pulpa, caída prematura, desarrollo desigual, pudrición del pedúnculo, mancha negra, ácaros y moscas de la fruta, menor rendimiento productivo</t>
-  </si>
-  <si>
-    <t>Muerte embrionaria, caida de frutillos , abscisión de flores individuales, Disminución en llenado de fruto, caida rpematura de frutos</t>
-  </si>
-  <si>
-    <t>Cosecha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfermedades postcosecha como la pudrición, Dificultad y demoras en  de cosecha y transporte, mayores costos asociados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayor caída de frutos, desuniformidad de maduración y predisposición a desórdenes fisiológicos, frutos deshidratados, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deshidratación de frutos, reducción de peso, tamañado y calidad comercial, </t>
-  </si>
-  <si>
-    <t>Fertilización</t>
-  </si>
-  <si>
-    <t>pérdida de nutrientes por lixiviación y escorrentía, desplazamiento de fertilizante, dilución de fertilizante, desnutrición de las plantas.</t>
-  </si>
-  <si>
-    <t>Reduccion en la disponibilidad de nutrientes del suelo, plantas débiles y susceptibles a enfermedades y plagas, volatilización de compuestos químicos</t>
-  </si>
-  <si>
-    <t>Adhesión y germinación del polen reducidas, baja eficiencia en la fertilización, Incremento en la velocidad de desecación del estigma</t>
-  </si>
-  <si>
-    <t>Reducción en la absorción de fertilizantes,  fertilizantes aplicados no se absorben y pueden acumularse. Riesgo de toxicidad localizada por amonio si se aplica previo a helada.</t>
-  </si>
-  <si>
-    <t>Arvenses</t>
-  </si>
-  <si>
-    <t>germinación y crecimiento acelerado de arvenses, mayor dispersión de semillas, dificultad en la aplicación de herbicidas, arvenses hospederos alternos de plagas, competencia por nutrientes</t>
-  </si>
-  <si>
-    <t>disminución en el crecimiento de arvenses nobles, aceleración de procesos de erosión del suelo</t>
-  </si>
-  <si>
-    <t>Proliferación de arvenses tolerantes a temperaturas altas, dificultad para control mecanico por suelos secos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menor eficacia en control de arvenses manual/ químico, </t>
-  </si>
-  <si>
-    <t>Asfixia radicular, ataque de Phytophthora, Cinnamomi y Verticillium albo-atrum, bajo desarrollo radicular, baja absorción de nutrientes, erosión del suelo alrededor de las raíces, reducción de longitud de raices</t>
-  </si>
-  <si>
-    <t>pérdida de turgencia, menor tamaño y grosor, mayor vulnerabilidad a daños mecánicos, tallos débiles y susceptibles a enfermedades y plagas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disminución acelerada de reservas de almidón, afectando el suministro energético a otras partes de la planta, reducción del diámetro del tallo </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aborto de yemas florales, crecimiento vegetativo desbalanceado, disminución en síntesis y acumulación de fitohormonas, específicamente auxinas y giberelinas</t>
-  </si>
-  <si>
-    <t>Reducción del periodo antesis, disminución  en el porcentaje de apertura floral, Reducción en la probabilidad de cuajado de fruto, Acortamiento del periodo de floración, inhibición en el crecimiento del tubo polínico, desincronización en la apertura floral, menor eficiencia en la polinización cruzada, disminución en sincronización floral, cambios en el patrón de apertura de las flores  masculinas y femeninas, caida de flores</t>
-  </si>
-  <si>
-    <t>Desarrollo embrionario lento, caida de frutos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perdida de fruta por heladas, cicatrices sobre fruta, cosechas tardias </t>
-  </si>
-  <si>
-    <t>meses</t>
-  </si>
-  <si>
-    <t>fin</t>
-  </si>
-  <si>
-    <t>ini</t>
-  </si>
-  <si>
-    <t>elem</t>
-  </si>
-  <si>
-    <t>deficit</t>
-  </si>
-  <si>
-    <t>exceso</t>
-  </si>
-  <si>
-    <t>3,5,7,9</t>
+    <t>ref</t>
   </si>
 </sst>
 </file>
@@ -276,8 +276,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,288 +617,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C692909D-18F9-4A2B-B4EB-BE96768C74FD}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="C12" s="1">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="G12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="H12" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
